--- a/Vokabeltraining.xlsx
+++ b/Vokabeltraining.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Documents\GitHub\master_arbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE4C51F-C151-43AB-9D55-92F2335140C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93064775-4F14-4A81-849D-85AA590298A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="if-else" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>5dHSfo</t>
   </si>
   <si>
-    <t>1nTGsa</t>
-  </si>
-  <si>
     <t>4iTGho</t>
   </si>
   <si>
@@ -367,6 +364,9 @@
   </si>
   <si>
     <t>Vokabeltraining-while</t>
+  </si>
+  <si>
+    <t>1aTGsa</t>
   </si>
 </sst>
 </file>
@@ -679,7 +679,7 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -719,7 +719,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2">
         <v>1.1851851851851851E-2</v>
@@ -736,7 +736,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2">
         <v>6.099537037037037E-3</v>
@@ -761,7 +761,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1">
         <v>20</v>
@@ -770,7 +770,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2">
         <v>1.4918981481481481E-2</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>22</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>21</v>
@@ -804,7 +804,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2">
         <v>1.068287037037037E-2</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>21</v>
@@ -821,7 +821,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2">
         <v>5.5671296296296293E-3</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>23</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>22</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>13</v>
@@ -870,18 +870,18 @@
         <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2">
         <v>1.3043981481481481E-2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
         <v>22</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1">
         <v>23</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1">
         <v>18</v>
@@ -922,7 +922,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="2">
         <v>1.6250000000000001E-2</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1">
         <v>21</v>
@@ -939,7 +939,7 @@
         <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15" s="2">
         <v>1.0046296296296296E-2</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1">
         <v>19</v>
@@ -956,7 +956,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="2">
         <v>9.2476851851851852E-3</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
         <v>23</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1">
         <v>22</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1">
         <v>21</v>
@@ -1005,7 +1005,7 @@
         <v>23</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="2">
         <v>1.0949074074074075E-2</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1">
         <v>23</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1">
         <v>22</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1">
         <v>20</v>
@@ -1054,7 +1054,7 @@
         <v>23</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" s="2">
         <v>6.4814814814814813E-3</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1">
         <v>21</v>
@@ -1071,7 +1071,7 @@
         <v>23</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" s="2">
         <v>1.6307870370370372E-2</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>20</v>
@@ -1088,7 +1088,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E24" s="2">
         <v>2.1388888888888888E-2</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1">
         <v>22</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1">
         <v>22</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1">
         <v>22</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1">
         <v>19</v>
@@ -1156,7 +1156,7 @@
         <v>23</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" s="2">
         <v>1.2418981481481482E-2</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1">
         <v>21</v>
@@ -1173,7 +1173,7 @@
         <v>23</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E29" s="2">
         <v>2.5138888888888888E-2</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1">
         <v>19</v>
@@ -1190,7 +1190,7 @@
         <v>23</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30" s="2">
         <v>6.9097222222222225E-3</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1">
         <v>19</v>
@@ -1207,7 +1207,7 @@
         <v>23</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E31" s="2">
         <v>1.5995370370370372E-2</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="1">
         <v>23</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="1">
         <v>22</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="1">
         <v>23</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1">
         <v>21</v>
@@ -1271,7 +1271,7 @@
         <v>23</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E35" s="2">
         <v>8.2175925925925923E-3</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="1">
         <v>22</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="1">
         <v>21</v>
@@ -1305,7 +1305,7 @@
         <v>23</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E37" s="2">
         <v>1.0914351851851852E-2</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="1">
         <v>19</v>
@@ -1322,7 +1322,7 @@
         <v>23</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E38" s="2">
         <v>7.4074074074074077E-3</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="1">
         <v>23</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="1">
         <v>21</v>
@@ -1354,7 +1354,7 @@
         <v>23</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E40" s="2">
         <v>7.7314814814814815E-3</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="1">
         <v>21</v>
@@ -1371,7 +1371,7 @@
         <v>23</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E41" s="2">
         <v>6.6203703703703702E-3</v>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="1">
         <v>20</v>
@@ -1388,7 +1388,7 @@
         <v>23</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E42" s="2">
         <v>1.2164351851851852E-2</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="1">
         <v>21</v>
@@ -1405,7 +1405,7 @@
         <v>23</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E43" s="3">
         <v>1.1354166666666667E-2</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="1">
         <v>23</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="1">
         <v>22</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" s="1">
         <v>23</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="1">
         <v>20</v>
@@ -1467,7 +1467,7 @@
         <v>23</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E47" s="3">
         <v>1.6736111111111111E-2</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" s="1">
         <v>23</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" s="1">
         <v>20</v>
@@ -1498,7 +1498,7 @@
         <v>23</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E49" s="3">
         <v>8.5069444444444437E-3</v>
@@ -1506,7 +1506,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="1">
         <v>19</v>
@@ -1515,7 +1515,7 @@
         <v>23</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E50" s="3">
         <v>1.4317129629629629E-2</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" s="1">
         <v>21</v>
@@ -1532,7 +1532,7 @@
         <v>23</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E51" s="3">
         <v>7.8935185185185185E-3</v>
@@ -1574,8 +1574,8 @@
   </sheetPr>
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1">
         <v>24</v>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
         <v>23</v>
@@ -1625,7 +1625,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2">
         <v>2.8807870370370369E-2</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1">
         <v>20</v>
@@ -1673,7 +1673,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2">
         <v>9.2592592592592587E-3</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1">
         <v>23</v>
@@ -1690,7 +1690,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="2">
         <v>4.6874999999999998E-3</v>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>22</v>
@@ -1707,7 +1707,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8" s="2">
         <v>1.037037037037037E-2</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>24</v>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="1">
         <v>24</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1">
         <v>25</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
         <v>24</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1">
         <v>24</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1">
         <v>24</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>8</v>
@@ -1824,7 +1824,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2">
         <v>1.4768518518518519E-2</v>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1">
         <v>24</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
         <v>24</v>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1">
         <v>23</v>
@@ -1875,7 +1875,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" s="2">
         <v>7.7199074074074071E-3</v>
@@ -1883,7 +1883,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1">
         <v>25</v>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>24</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1">
         <v>24</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1">
         <v>21</v>
@@ -1940,7 +1940,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22" s="2">
         <v>1.1574074074074073E-2</v>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1">
         <v>25</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>24</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1">
         <v>25</v>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1">
         <v>25</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="1">
         <v>25</v>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1">
         <v>25</v>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1">
         <v>24</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" s="1">
         <v>21</v>
@@ -2061,7 +2061,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E30" s="2">
         <v>2.5266203703703704E-2</v>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="1">
         <v>24</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="1">
         <v>24</v>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="1">
         <v>25</v>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1">
         <v>22</v>
@@ -2141,7 +2141,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E35" s="2">
         <v>1.1597222222222222E-2</v>
@@ -2149,7 +2149,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="1">
         <v>25</v>
@@ -2163,7 +2163,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37" s="1">
         <v>25</v>
@@ -2177,7 +2177,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="1">
         <v>25</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" s="1">
         <v>25</v>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="1">
         <v>25</v>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B41" s="1">
         <v>24</v>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="1">
         <v>22</v>
@@ -2245,7 +2245,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E42" s="2">
         <v>8.1481481481481474E-3</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B43" s="1">
         <v>25</v>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44" s="1">
         <v>24</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" s="1">
         <v>25</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B46" s="1">
         <v>25</v>
@@ -2312,7 +2312,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="B47" s="1">
         <v>22</v>
@@ -2321,7 +2321,7 @@
         <v>25</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E47" s="2">
         <v>8.4259259259259253E-3</v>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" s="1">
         <v>24</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" s="1">
         <v>24</v>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" s="1">
         <v>24</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" s="1">
         <v>25</v>
@@ -2411,8 +2411,8 @@
   </sheetPr>
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1">
         <v>23</v>
@@ -2445,7 +2445,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2">
         <v>4.2939814814814811E-3</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1">
         <v>25</v>
@@ -2468,7 +2468,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1">
         <v>24</v>
@@ -2485,7 +2485,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1">
         <v>25</v>
@@ -2500,7 +2500,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1">
         <v>23</v>
@@ -2509,7 +2509,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="2">
         <v>1.2800925925925926E-2</v>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
         <v>25</v>
@@ -2532,7 +2532,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1">
         <v>25</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>24</v>
@@ -2573,7 +2573,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="2">
         <v>5.5092592592592589E-3</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="1">
         <v>25</v>
@@ -2596,7 +2596,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="1">
         <v>25</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1">
         <v>24</v>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1">
         <v>24</v>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1">
         <v>25</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1">
         <v>24</v>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1">
         <v>24</v>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1">
         <v>25</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1">
         <v>22</v>
@@ -2717,7 +2717,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E19" s="2">
         <v>6.2847222222222219E-3</v>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1">
         <v>25</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1">
         <v>24</v>
@@ -2756,7 +2756,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>22</v>
@@ -2765,7 +2765,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E22" s="2">
         <v>3.2291666666666666E-3</v>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1">
         <v>24</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1">
         <v>25</v>
@@ -2804,7 +2804,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="1">
         <v>24</v>
@@ -2821,7 +2821,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1">
         <v>23</v>
@@ -2830,7 +2830,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" s="2">
         <v>7.9861111111111105E-3</v>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1">
         <v>25</v>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
         <v>24</v>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="1">
         <v>24</v>
@@ -2886,7 +2886,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" s="1">
         <v>25</v>
@@ -2900,7 +2900,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="1">
         <v>24</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" s="1">
         <v>21</v>
@@ -2926,7 +2926,7 @@
         <v>25</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E32" s="2">
         <v>1.2662037037037038E-2</v>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>23</v>
@@ -2943,7 +2943,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E33" s="2">
         <v>8.0787037037037043E-3</v>
@@ -2965,7 +2965,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>20</v>
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E35" s="2">
         <v>5.7754629629629631E-3</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" s="1">
         <v>25</v>
@@ -3013,7 +3013,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="1">
         <v>24</v>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1">
         <v>23</v>
@@ -3039,7 +3039,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E39" s="2">
         <v>1.7800925925925925E-2</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40" s="1">
         <v>22</v>
@@ -3056,7 +3056,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E40" s="2">
         <v>8.8078703703703704E-3</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" s="1">
         <v>24</v>
@@ -3081,7 +3081,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42" s="1">
         <v>25</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="1">
         <v>24</v>
@@ -3112,7 +3112,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="1">
         <v>24</v>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1">
         <v>24</v>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B46" s="1">
         <v>24</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" s="1">
         <v>24</v>
@@ -3180,7 +3180,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B48" s="1">
         <v>24</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B49" s="1">
         <v>22</v>
@@ -3206,7 +3206,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2">
         <v>1.1006944444444444E-2</v>
@@ -3214,7 +3214,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="1">
         <v>24</v>
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1">
         <v>24</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>25</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1">
         <v>24</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1">
         <v>25</v>
@@ -3336,7 +3336,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>25</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1">
         <v>25</v>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1">
         <v>24</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1">
         <v>25</v>
@@ -3398,7 +3398,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -3413,7 +3413,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1">
         <v>25</v>
@@ -3427,7 +3427,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1">
         <v>25</v>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1">
         <v>23</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>21</v>
@@ -3468,7 +3468,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E14" s="2">
         <v>9.6759259259259264E-3</v>
@@ -3476,7 +3476,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1">
         <v>24</v>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1">
         <v>25</v>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1">
         <v>24</v>
@@ -3524,7 +3524,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1">
         <v>23</v>
@@ -3533,7 +3533,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E18" s="2">
         <v>5.7291666666666663E-3</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1">
         <v>25</v>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>25</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1">
         <v>25</v>
@@ -3600,7 +3600,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1">
         <v>25</v>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" s="1">
         <v>25</v>
@@ -3628,7 +3628,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1">
         <v>25</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28" s="1">
         <v>25</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1">
         <v>25</v>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1">
         <v>25</v>
@@ -3715,7 +3715,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1">
         <v>25</v>
@@ -3729,7 +3729,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="1">
         <v>24</v>
@@ -3746,7 +3746,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1">
         <v>23</v>
@@ -3755,7 +3755,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E33" s="2">
         <v>4.2013888888888891E-3</v>
@@ -3763,7 +3763,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" s="1">
         <v>25</v>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35" s="1">
         <v>22</v>
@@ -3786,7 +3786,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E35" s="2">
         <v>5.3009259259259259E-3</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="1">
         <v>25</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1">
         <v>25</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B38" s="1">
         <v>25</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B39" s="1">
         <v>24</v>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="1">
         <v>25</v>
@@ -3867,7 +3867,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>25</v>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B42" s="1">
         <v>25</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="1">
         <v>23</v>
@@ -3904,7 +3904,7 @@
         <v>25</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2">
         <v>5.8217592592592592E-3</v>
@@ -3912,7 +3912,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" s="1">
         <v>25</v>
@@ -3926,7 +3926,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B45" s="1">
         <v>24</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B46" s="1">
         <v>25</v>
@@ -3957,7 +3957,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" s="1">
         <v>25</v>
@@ -3971,7 +3971,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B48" s="1">
         <v>25</v>
@@ -3985,7 +3985,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49" s="1">
         <v>24</v>
@@ -4002,7 +4002,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B50" s="1">
         <v>24</v>
